--- a/benchmarks/mc2022/total_X_definition.xlsx
+++ b/benchmarks/mc2022/total_X_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/model-counting/benchmarks/mc2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B0791-BE43-4247-BCA3-741E87E3DECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6F5ECD-048F-B04B-BFB3-CF453A152C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="62880" yWindow="500" windowWidth="35140" windowHeight="26660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>Instance</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>mc2022_track2_103</t>
+  </si>
+  <si>
+    <t>mc2022_track1_171</t>
   </si>
 </sst>
 </file>
@@ -1684,43 +1687,43 @@
                   <c:v>401032</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>1125105</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>6074672</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>132891</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>65522</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>15561156</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>143191</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>2851</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>5243</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>334862</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>82585</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>447979</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>1891045</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>1001050</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>470934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,43 +1828,43 @@
                   <c:v>713174</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>10010848</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>7724513</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>169268</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>85289</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>20152267</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>185948</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>4920</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>8808</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>618431</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>258193</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>1152969</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>2715922</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>1928106</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1474499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4342,10 +4345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4748,298 +4751,309 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B34">
-        <v>6074672</v>
+        <v>1125105</v>
       </c>
       <c r="C34">
-        <v>7724513</v>
+        <v>10010848</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>132891</v>
+        <v>6074672</v>
       </c>
       <c r="C35">
-        <v>169268</v>
+        <v>7724513</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>65522</v>
+        <v>132891</v>
       </c>
       <c r="C36">
-        <v>85289</v>
+        <v>169268</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>15561156</v>
+        <v>65522</v>
       </c>
       <c r="C37">
-        <v>20152267</v>
+        <v>85289</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B38">
-        <v>143191</v>
+        <v>15561156</v>
       </c>
       <c r="C38">
-        <v>185948</v>
+        <v>20152267</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39">
-        <v>2851</v>
+        <v>143191</v>
       </c>
       <c r="C39">
-        <v>4920</v>
+        <v>185948</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40">
-        <v>5243</v>
+        <v>2851</v>
       </c>
       <c r="C40">
-        <v>8808</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>334862</v>
+        <v>5243</v>
       </c>
       <c r="C41">
-        <v>618431</v>
+        <v>8808</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B42">
-        <v>82585</v>
+        <v>334862</v>
       </c>
       <c r="C42">
-        <v>258193</v>
+        <v>618431</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43">
-        <v>447979</v>
+        <v>82585</v>
       </c>
       <c r="C43">
-        <v>1152969</v>
+        <v>258193</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44">
-        <v>1891045</v>
+        <v>447979</v>
       </c>
       <c r="C44">
-        <v>2715922</v>
+        <v>1152969</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>1001050</v>
+        <v>1891045</v>
       </c>
       <c r="C45">
-        <v>1928106</v>
+        <v>2715922</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B46">
-        <v>470934</v>
+        <v>1001050</v>
       </c>
       <c r="C46">
-        <v>1474499</v>
+        <v>1928106</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47">
-        <v>3131</v>
+        <v>470934</v>
       </c>
       <c r="C47">
-        <v>5420</v>
+        <v>1474499</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48">
-        <v>2515</v>
+        <v>3131</v>
       </c>
       <c r="C48">
-        <v>4312</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B49">
-        <v>1903735</v>
+        <v>2515</v>
       </c>
       <c r="C49">
-        <v>3548012</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>1107098</v>
+        <v>1903735</v>
       </c>
       <c r="C50">
-        <v>1566845</v>
+        <v>3548012</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B51">
-        <v>2437497</v>
+        <v>1107098</v>
       </c>
       <c r="C51">
-        <v>4831300</v>
+        <v>1566845</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>467550</v>
+        <v>2437497</v>
       </c>
       <c r="C52">
-        <v>697265</v>
+        <v>4831300</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53">
-        <v>3109</v>
+        <v>467550</v>
       </c>
       <c r="C53">
-        <v>5486</v>
+        <v>697265</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54">
-        <v>899701</v>
+        <v>3109</v>
       </c>
       <c r="C54">
-        <v>1681012</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B55">
-        <v>312728</v>
+        <v>899701</v>
       </c>
       <c r="C55">
-        <v>923505</v>
+        <v>1681012</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>3175308</v>
+        <v>312728</v>
       </c>
       <c r="C56">
-        <v>6042589</v>
+        <v>923505</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>453769</v>
+        <v>3175308</v>
       </c>
       <c r="C57">
-        <v>1484393</v>
+        <v>6042589</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B58">
-        <v>498246</v>
+        <v>453769</v>
       </c>
       <c r="C58">
-        <v>1190677</v>
+        <v>1484393</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>3835114</v>
+        <v>498246</v>
       </c>
       <c r="C59">
-        <v>15902649</v>
+        <v>1190677</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>3835114</v>
+      </c>
+      <c r="C60">
+        <v>15902649</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>46</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>402460</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>717469</v>
       </c>
     </row>

--- a/benchmarks/mc2022/total_X_definition.xlsx
+++ b/benchmarks/mc2022/total_X_definition.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/model-counting/benchmarks/mc2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6F5ECD-048F-B04B-BFB3-CF453A152C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84329A3-C174-E340-BCC7-58DC7374E73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62880" yWindow="500" windowWidth="35140" windowHeight="26660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62880" yWindow="500" windowWidth="35140" windowHeight="26660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v01-no-lemmas" sheetId="1" r:id="rId1"/>
     <sheet name="v03-with-lemmas" sheetId="2" r:id="rId2"/>
+    <sheet name="v04-drat-trim" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="99">
   <si>
     <t>Instance</t>
   </si>
@@ -229,6 +230,108 @@
   </si>
   <si>
     <t>mc2022_track1_171</t>
+  </si>
+  <si>
+    <t>mc2022_track1_025</t>
+  </si>
+  <si>
+    <t>mc2022_track1_029</t>
+  </si>
+  <si>
+    <t>mc2022_track1_073</t>
+  </si>
+  <si>
+    <t>mc2022_track1_077</t>
+  </si>
+  <si>
+    <t>mc2022_track1_081</t>
+  </si>
+  <si>
+    <t>mc2022_track1_091</t>
+  </si>
+  <si>
+    <t>mc2022_track1_095</t>
+  </si>
+  <si>
+    <t>mc2022_track1_097</t>
+  </si>
+  <si>
+    <t>mc2022_track2_027</t>
+  </si>
+  <si>
+    <t>mc2022_track2_029</t>
+  </si>
+  <si>
+    <t>mc2022_track2_031</t>
+  </si>
+  <si>
+    <t>mc2022_track2_039</t>
+  </si>
+  <si>
+    <t>mc2022_track2_043</t>
+  </si>
+  <si>
+    <t>mc2022_track2_053</t>
+  </si>
+  <si>
+    <t>mc2022_track2_085</t>
+  </si>
+  <si>
+    <t>mc2022_track2_089</t>
+  </si>
+  <si>
+    <t>mc2022_track2_097</t>
+  </si>
+  <si>
+    <t>mc2022_track2_101</t>
+  </si>
+  <si>
+    <t>mc2022_track2_107</t>
+  </si>
+  <si>
+    <t>mc2022_track2_125</t>
+  </si>
+  <si>
+    <t>mc2022_track2_127</t>
+  </si>
+  <si>
+    <t>mc2022_track2_133</t>
+  </si>
+  <si>
+    <t>mc2022_track2_183</t>
+  </si>
+  <si>
+    <t>mc2022_track1_109</t>
+  </si>
+  <si>
+    <t>mc2022_track1_113</t>
+  </si>
+  <si>
+    <t>mc2022_track1_141</t>
+  </si>
+  <si>
+    <t>mc2022_track1_153</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Using Drat-trim on large SAT problems</t>
+  </si>
+  <si>
+    <t>Ratio Stats</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>H Mean</t>
   </si>
 </sst>
 </file>
@@ -712,9 +815,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2289,6 +2393,764 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v04-drat-trim'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'v04-drat-trim'!$B$3:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>314359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>605988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1141369</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1197649</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1001050</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2947</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>355617</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4897</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>701346</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>467550</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1318024</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4713</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1682059</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1406192</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>899701</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70651620</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9567</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82194</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>574062</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1757</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>190248</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2064844</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50722</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45923418</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>72258</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>401032</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6074672</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>132891</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>65522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'v04-drat-trim'!$C$3:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>484830</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33188</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>963935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2210941</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1890249</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1927640</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5212</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8460</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>534380</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8284</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46068</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1376984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26271</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>697265</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2052035</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23564</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2470276</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3387277</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1385124</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108691610</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>248850</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>186524</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>268113</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>427338</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8447449</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>478446</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>399847</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>413079</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13059325</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>813982</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65321959</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4608396</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>713346</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2155895</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7724513</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>169268</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>85289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7801-C844-B0D4-CEA294C54440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7801-C844-B0D4-CEA294C54440}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'v04-drat-trim'!$E$3:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'v04-drat-trim'!$F$3:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7801-C844-B0D4-CEA294C54440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7801-C844-B0D4-CEA294C54440}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'v04-drat-trim'!$E$5:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'v04-drat-trim'!$F$5:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7801-C844-B0D4-CEA294C54440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>100X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'v04-drat-trim'!$E$7:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'v04-drat-trim'!$G$7:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7801-C844-B0D4-CEA294C54440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1670715136"/>
+        <c:axId val="1674696576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1670715136"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1674696576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1674696576"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="120000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1670715136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2369,6 +3231,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2886,6 +3788,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3463,6 +4881,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C73420-F9D1-494B-9A6D-861FB1CDEB31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A957B3B-D03C-0E41-8101-D1B75BE096B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4347,7 +5808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
@@ -5061,4 +6522,1369 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC4FA71-AAA7-E84F-A484-BC84FC126B46}">
+  <dimension ref="A1:F86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1295</v>
+      </c>
+      <c r="C3">
+        <v>1890</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3/B3</f>
+        <v>1.4594594594594594</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1659</v>
+      </c>
+      <c r="C4">
+        <v>2948</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D67" si="0">C4/B4</f>
+        <v>1.7769740807715491</v>
+      </c>
+      <c r="E4" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>127284</v>
+      </c>
+      <c r="C5">
+        <v>165611</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.301114044184658</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2325</v>
+      </c>
+      <c r="C6">
+        <v>3976</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7101075268817205</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>359</v>
+      </c>
+      <c r="C7">
+        <v>534</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4874651810584958</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5373</v>
+      </c>
+      <c r="C8">
+        <v>9100</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6936534524474223</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>314359</v>
+      </c>
+      <c r="C9">
+        <v>484830</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5422812771385581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>44178</v>
+      </c>
+      <c r="C10">
+        <v>67234</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5218887228937481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>493</v>
+      </c>
+      <c r="C11">
+        <v>33188</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>67.318458417849897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>605988</v>
+      </c>
+      <c r="C12">
+        <v>963935</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5906833138610006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>1141369</v>
+      </c>
+      <c r="C13">
+        <v>2210941</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9370957157588826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14">
+        <v>1197649</v>
+      </c>
+      <c r="C14">
+        <v>1890249</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5782996520683439</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>1001050</v>
+      </c>
+      <c r="C15">
+        <v>1927640</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9256181009939564</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="2">
+        <f>MIN(D:D)</f>
+        <v>1.2715934292419409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>2947</v>
+      </c>
+      <c r="C16">
+        <v>5212</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7685782151340346</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="2">
+        <f>MAX(D:D)</f>
+        <v>6072.9436619718308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>4991</v>
+      </c>
+      <c r="C17">
+        <v>8460</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6950510919655379</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="2">
+        <f>AVERAGE(D:D)</f>
+        <v>123.96950938692056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>355617</v>
+      </c>
+      <c r="C18">
+        <v>534380</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5026840674096007</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="2">
+        <f>HARMEAN(D:D)</f>
+        <v>2.2317035861056698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>4897</v>
+      </c>
+      <c r="C19">
+        <v>8284</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6916479477230957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>345</v>
+      </c>
+      <c r="C20">
+        <v>46068</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>133.53043478260869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>701346</v>
+      </c>
+      <c r="C21">
+        <v>1376984</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9633447684880216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>3191</v>
+      </c>
+      <c r="C22">
+        <v>26271</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2328423691632722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>467550</v>
+      </c>
+      <c r="C23">
+        <v>697265</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4913164367447331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>1318024</v>
+      </c>
+      <c r="C24">
+        <v>2052035</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.556902605718864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>4713</v>
+      </c>
+      <c r="C25">
+        <v>23564</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9997878209208571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>1682059</v>
+      </c>
+      <c r="C26">
+        <v>2470276</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4686024687600139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>1406192</v>
+      </c>
+      <c r="C27">
+        <v>3387277</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4088296619522795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>899701</v>
+      </c>
+      <c r="C28">
+        <v>1385124</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5395381354472208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29">
+        <v>70651620</v>
+      </c>
+      <c r="C29">
+        <v>108691610</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>1.538416387338323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30">
+        <v>9567</v>
+      </c>
+      <c r="C30">
+        <v>248850</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>26.011288805268109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>18007</v>
+      </c>
+      <c r="C31">
+        <v>186524</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>10.358416171488866</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>82194</v>
+      </c>
+      <c r="C32">
+        <v>268113</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2619534272574642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>304</v>
+      </c>
+      <c r="C33">
+        <v>427338</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>1405.7171052631579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>574062</v>
+      </c>
+      <c r="C34">
+        <v>8447449</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>14.715220655608627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35">
+        <v>887</v>
+      </c>
+      <c r="C35">
+        <v>478446</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>539.39797068771134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>1757</v>
+      </c>
+      <c r="C36">
+        <v>399847</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>227.57370517928288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <v>190248</v>
+      </c>
+      <c r="C37">
+        <v>413079</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1712659265800429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>2064844</v>
+      </c>
+      <c r="C38">
+        <v>13059325</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3246061203655097</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39">
+        <v>50722</v>
+      </c>
+      <c r="C39">
+        <v>813982</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>16.0479082055124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40">
+        <v>45923418</v>
+      </c>
+      <c r="C40">
+        <v>65321959</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4224106533185312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41">
+        <v>72258</v>
+      </c>
+      <c r="C41">
+        <v>4608396</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>63.776965872290958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>401032</v>
+      </c>
+      <c r="C42">
+        <v>713346</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7787757585429591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43">
+        <v>355</v>
+      </c>
+      <c r="C43">
+        <v>2155895</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>6072.9436619718308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>6074672</v>
+      </c>
+      <c r="C44">
+        <v>7724513</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2715934292419409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45">
+        <v>132891</v>
+      </c>
+      <c r="C45">
+        <v>169268</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2737356179124244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46">
+        <v>65522</v>
+      </c>
+      <c r="C46">
+        <v>85289</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3016849302524343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>15561156</v>
+      </c>
+      <c r="C47">
+        <v>20152267</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2950366283841637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>143191</v>
+      </c>
+      <c r="C48">
+        <v>185948</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2986011690678883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49">
+        <v>2851</v>
+      </c>
+      <c r="C49">
+        <v>4920</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>1.725710277095756</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50">
+        <v>5243</v>
+      </c>
+      <c r="C50">
+        <v>8808</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6799542246805264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51">
+        <v>334862</v>
+      </c>
+      <c r="C51">
+        <v>618431</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8468234675776887</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52">
+        <v>2659</v>
+      </c>
+      <c r="C52">
+        <v>4620</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7374952989845807</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53">
+        <v>82585</v>
+      </c>
+      <c r="C53">
+        <v>246061</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9794878004480232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54">
+        <v>447979</v>
+      </c>
+      <c r="C54">
+        <v>1143908</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5534857660738561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55">
+        <v>905899</v>
+      </c>
+      <c r="C55">
+        <v>1458346</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6098328842398546</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56">
+        <v>433226</v>
+      </c>
+      <c r="C56">
+        <v>698524</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6123778351253157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57">
+        <v>551970</v>
+      </c>
+      <c r="C57">
+        <v>897427</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="0"/>
+        <v>1.625861912785115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58">
+        <v>1891045</v>
+      </c>
+      <c r="C58">
+        <v>2715922</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4362016768506303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1001050</v>
+      </c>
+      <c r="C59">
+        <v>1927640</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9256181009939564</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60">
+        <v>755273</v>
+      </c>
+      <c r="C60">
+        <v>1199583</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5882773513683133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61">
+        <v>470934</v>
+      </c>
+      <c r="C61">
+        <v>1437689</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0528460463674314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62">
+        <v>1178453</v>
+      </c>
+      <c r="C62">
+        <v>1885260</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5997752986330385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63">
+        <v>3131</v>
+      </c>
+      <c r="C63">
+        <v>5420</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7310763334397956</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64">
+        <v>2515</v>
+      </c>
+      <c r="C64">
+        <v>4312</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7145129224652087</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65">
+        <v>1903735</v>
+      </c>
+      <c r="C65">
+        <v>3499442</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8381980685336983</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66">
+        <v>1107098</v>
+      </c>
+      <c r="C66">
+        <v>1566845</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4152721800599406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67">
+        <v>1801878</v>
+      </c>
+      <c r="C67">
+        <v>2769083</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5367760747397992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68">
+        <v>2437497</v>
+      </c>
+      <c r="C68">
+        <v>4814788</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" ref="D68:D86" si="1">C68/B68</f>
+        <v>1.9753000721641913</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69">
+        <v>467550</v>
+      </c>
+      <c r="C69">
+        <v>697265</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4913164367447331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70">
+        <v>3109</v>
+      </c>
+      <c r="C70">
+        <v>5486</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7645545191379866</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71">
+        <v>899701</v>
+      </c>
+      <c r="C71">
+        <v>1385124</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5395381354472208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72">
+        <v>312728</v>
+      </c>
+      <c r="C72">
+        <v>639730</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0456434985034919</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>18007</v>
+      </c>
+      <c r="C73">
+        <v>186524</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="1"/>
+        <v>10.358416171488866</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74">
+        <v>3175308</v>
+      </c>
+      <c r="C74">
+        <v>5681712</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="1"/>
+        <v>1.789342010286876</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>142059</v>
+      </c>
+      <c r="C75">
+        <v>737049</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1883302008320484</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76">
+        <v>453769</v>
+      </c>
+      <c r="C76">
+        <v>1358725</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9943098801372505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77">
+        <v>498246</v>
+      </c>
+      <c r="C77">
+        <v>1111640</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2311067223821164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>304</v>
+      </c>
+      <c r="C78">
+        <v>427338</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="1"/>
+        <v>1405.7171052631579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>797866</v>
+      </c>
+      <c r="C79">
+        <v>6839435</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="1"/>
+        <v>8.572159986764694</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80">
+        <v>3835114</v>
+      </c>
+      <c r="C80">
+        <v>15902649</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1465909487957857</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>50722</v>
+      </c>
+      <c r="C81">
+        <v>813982</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="1"/>
+        <v>16.0479082055124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>647011</v>
+      </c>
+      <c r="C82">
+        <v>9796541</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="1"/>
+        <v>15.141227892570605</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>5189</v>
+      </c>
+      <c r="C83">
+        <v>1233896</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="1"/>
+        <v>237.79071111967625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>740235</v>
+      </c>
+      <c r="C84">
+        <v>2542383</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4345619972035908</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85">
+        <v>402460</v>
+      </c>
+      <c r="C85">
+        <v>717643</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7831411817323461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>3975194</v>
+      </c>
+      <c r="C86">
+        <v>16079495</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0449585605130212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/benchmarks/mc2022/total_X_definition.xlsx
+++ b/benchmarks/mc2022/total_X_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/model-counting/benchmarks/mc2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84329A3-C174-E340-BCC7-58DC7374E73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163F31FC-3BDD-7E47-B39E-C731C5C94E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62880" yWindow="500" windowWidth="35140" windowHeight="26660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11920" yWindow="500" windowWidth="35140" windowHeight="26660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v01-no-lemmas" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
   <si>
     <t>Instance</t>
   </si>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t>H Mean</t>
+  </si>
+  <si>
+    <t>mc2022_track1_005</t>
+  </si>
+  <si>
+    <t>mc2022_track2_035</t>
   </si>
 </sst>
 </file>
@@ -2456,136 +2462,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
+                  <c:v>18271</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1295</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1659</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>127284</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2325</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5373</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>314359</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44178</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>493</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>605988</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1141369</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1197649</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1001050</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>2947</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>4991</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>355617</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>4897</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
+                  <c:v>2437497</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>345</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>701346</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>3191</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>467550</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>1318024</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>4713</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>1682059</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>1406192</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>899701</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>70651620</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>9567</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
+                  <c:v>39501</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>18007</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>82194</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>304</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>574062</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>887</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>1757</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>190248</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>2064844</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>50722</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>45923418</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>72258</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>401032</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6074672</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>132891</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>65522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,136 +2603,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>1890</c:v>
+                  <c:v>161794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2948</c:v>
+                  <c:v>2392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>165611</c:v>
+                  <c:v>4427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3976</c:v>
+                  <c:v>262327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>534</c:v>
+                  <c:v>6077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9100</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>484830</c:v>
+                  <c:v>14373</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67234</c:v>
+                  <c:v>1213826</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33188</c:v>
+                  <c:v>81776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>963935</c:v>
+                  <c:v>33206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2210941</c:v>
+                  <c:v>1117366</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1890249</c:v>
+                  <c:v>3809317</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1927640</c:v>
+                  <c:v>2211854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5212</c:v>
+                  <c:v>2393131</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8460</c:v>
+                  <c:v>7851</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>534380</c:v>
+                  <c:v>13207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8284</c:v>
+                  <c:v>721933</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46068</c:v>
+                  <c:v>13101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1376984</c:v>
+                  <c:v>5273728</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26271</c:v>
+                  <c:v>46079</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>697265</c:v>
+                  <c:v>1593572</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2052035</c:v>
+                  <c:v>26361</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23564</c:v>
+                  <c:v>940813</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2470276</c:v>
+                  <c:v>2813556</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3387277</c:v>
+                  <c:v>23827</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1385124</c:v>
+                  <c:v>3154692</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>108691610</c:v>
+                  <c:v>4043887</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>248850</c:v>
+                  <c:v>1701121</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>186524</c:v>
+                  <c:v>197339867</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>268113</c:v>
+                  <c:v>251835</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>427338</c:v>
+                  <c:v>104175</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8447449</c:v>
+                  <c:v>187439</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>478446</c:v>
+                  <c:v>297764</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>399847</c:v>
+                  <c:v>427340</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>413079</c:v>
+                  <c:v>8448281</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13059325</c:v>
+                  <c:v>478450</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>813982</c:v>
+                  <c:v>399856</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>65321959</c:v>
+                  <c:v>429391</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4608396</c:v>
+                  <c:v>13434107</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>713346</c:v>
+                  <c:v>820632</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2155895</c:v>
+                  <c:v>82242494</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7724513</c:v>
+                  <c:v>4612337</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>169268</c:v>
+                  <c:v>840020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>85289</c:v>
+                  <c:v>2155897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6526,10 +6532,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC4FA71-AAA7-E84F-A484-BC84FC126B46}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A3" sqref="A3:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6558,17 +6564,17 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B3">
-        <v>1295</v>
+        <v>18271</v>
       </c>
       <c r="C3">
-        <v>1890</v>
+        <v>161794</v>
       </c>
       <c r="D3" s="2">
         <f>C3/B3</f>
-        <v>1.4594594594594594</v>
+        <v>8.8552350719719772</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -6579,17 +6585,17 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1659</v>
+        <v>1295</v>
       </c>
       <c r="C4">
-        <v>2948</v>
+        <v>2392</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D67" si="0">C4/B4</f>
-        <v>1.7769740807715491</v>
+        <v>1.8471042471042471</v>
       </c>
       <c r="E4" s="1">
         <v>120000000</v>
@@ -6600,17 +6606,17 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>127284</v>
+        <v>1659</v>
       </c>
       <c r="C5">
-        <v>165611</v>
+        <v>4427</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>1.301114044184658</v>
+        <v>2.6684749849306812</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -6621,17 +6627,17 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2325</v>
+        <v>127284</v>
       </c>
       <c r="C6">
-        <v>3976</v>
+        <v>262327</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1.7101075268817205</v>
+        <v>2.0609581722761696</v>
       </c>
       <c r="E6" s="1">
         <v>1200000</v>
@@ -6642,17 +6648,17 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>359</v>
+        <v>2325</v>
       </c>
       <c r="C7">
-        <v>534</v>
+        <v>6077</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1.4874651810584958</v>
+        <v>2.6137634408602151</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -6663,17 +6669,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>5373</v>
+        <v>359</v>
       </c>
       <c r="C8">
-        <v>9100</v>
+        <v>549</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.6936534524474223</v>
+        <v>1.5292479108635098</v>
       </c>
       <c r="E8" s="1">
         <v>1000000</v>
@@ -6684,92 +6690,92 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>314359</v>
+        <v>5373</v>
       </c>
       <c r="C9">
-        <v>484830</v>
+        <v>14373</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>1.5422812771385581</v>
+        <v>2.675041876046901</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>44178</v>
+        <v>314359</v>
       </c>
       <c r="C10">
-        <v>67234</v>
+        <v>1213826</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>1.5218887228937481</v>
+        <v>3.861273257644922</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>493</v>
+        <v>44178</v>
       </c>
       <c r="C11">
-        <v>33188</v>
+        <v>81776</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>67.318458417849897</v>
+        <v>1.8510570872379917</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>605988</v>
+        <v>493</v>
       </c>
       <c r="C12">
-        <v>963935</v>
+        <v>33206</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>1.5906833138610006</v>
+        <v>67.354969574036517</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>1141369</v>
+        <v>605988</v>
       </c>
       <c r="C13">
-        <v>2210941</v>
+        <v>1117366</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>1.9370957157588826</v>
+        <v>1.8438747962005848</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B14">
-        <v>1197649</v>
+        <v>1141369</v>
       </c>
       <c r="C14">
-        <v>1890249</v>
+        <v>3809317</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>1.5782996520683439</v>
+        <v>3.3374982148630283</v>
       </c>
       <c r="E14" t="s">
         <v>94</v>
@@ -6777,1110 +6783,1185 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B15">
-        <v>1001050</v>
+        <v>1197649</v>
       </c>
       <c r="C15">
-        <v>1927640</v>
+        <v>2211854</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>1.9256181009939564</v>
+        <v>1.8468299142737146</v>
       </c>
       <c r="E15" t="s">
         <v>95</v>
       </c>
       <c r="F15" s="2">
         <f>MIN(D:D)</f>
-        <v>1.2715934292419409</v>
+        <v>1.5292479108635098</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B16">
-        <v>2947</v>
+        <v>1001050</v>
       </c>
       <c r="C16">
-        <v>5212</v>
+        <v>2393131</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>1.7685782151340346</v>
+        <v>2.3906208481094851</v>
       </c>
       <c r="E16" t="s">
         <v>96</v>
       </c>
       <c r="F16" s="2">
         <f>MAX(D:D)</f>
-        <v>6072.9436619718308</v>
+        <v>6072.9492957746479</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>4991</v>
+        <v>2947</v>
       </c>
       <c r="C17">
-        <v>8460</v>
+        <v>7851</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>1.6950510919655379</v>
+        <v>2.6640651510010178</v>
       </c>
       <c r="E17" t="s">
         <v>97</v>
       </c>
       <c r="F17" s="2">
         <f>AVERAGE(D:D)</f>
-        <v>123.96950938692056</v>
+        <v>117.65910878306588</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>355617</v>
+        <v>4991</v>
       </c>
       <c r="C18">
-        <v>534380</v>
+        <v>13207</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>1.5026840674096007</v>
+        <v>2.6461630935684233</v>
       </c>
       <c r="E18" t="s">
         <v>98</v>
       </c>
       <c r="F18" s="2">
         <f>HARMEAN(D:D)</f>
-        <v>2.2317035861056698</v>
+        <v>2.9314662896794688</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>4897</v>
+        <v>355617</v>
       </c>
       <c r="C19">
-        <v>8284</v>
+        <v>721933</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>1.6916479477230957</v>
+        <v>2.0300857383083484</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>345</v>
+        <v>4897</v>
       </c>
       <c r="C20">
-        <v>46068</v>
+        <v>13101</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>133.53043478260869</v>
+        <v>2.6753114151521338</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B21">
-        <v>701346</v>
+        <v>2437497</v>
       </c>
       <c r="C21">
-        <v>1376984</v>
+        <v>5273728</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>1.9633447684880216</v>
+        <v>2.1635833808205711</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>3191</v>
+        <v>345</v>
       </c>
       <c r="C22">
-        <v>26271</v>
+        <v>46079</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>8.2328423691632722</v>
+        <v>133.56231884057971</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>467550</v>
+        <v>701346</v>
       </c>
       <c r="C23">
-        <v>697265</v>
+        <v>1593572</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>1.4913164367447331</v>
+        <v>2.2721623848998926</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>1318024</v>
+        <v>3191</v>
       </c>
       <c r="C24">
-        <v>2052035</v>
+        <v>26361</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>1.556902605718864</v>
+        <v>8.2610466938263869</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>4713</v>
+        <v>467550</v>
       </c>
       <c r="C25">
-        <v>23564</v>
+        <v>940813</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>4.9997878209208571</v>
+        <v>2.0122190140091969</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B26">
-        <v>1682059</v>
+        <v>1318024</v>
       </c>
       <c r="C26">
-        <v>2470276</v>
+        <v>2813556</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>1.4686024687600139</v>
+        <v>2.1346773655107949</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>1406192</v>
+        <v>4713</v>
       </c>
       <c r="C27">
-        <v>3387277</v>
+        <v>23827</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>2.4088296619522795</v>
+        <v>5.0555909187354127</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>899701</v>
+        <v>1682059</v>
       </c>
       <c r="C28">
-        <v>1385124</v>
+        <v>3154692</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>1.5395381354472208</v>
+        <v>1.8754942603083482</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>70651620</v>
+        <v>1406192</v>
       </c>
       <c r="C29">
-        <v>108691610</v>
+        <v>4043887</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>1.538416387338323</v>
+        <v>2.8757715873792482</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>9567</v>
+        <v>899701</v>
       </c>
       <c r="C30">
-        <v>248850</v>
+        <v>1701121</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>26.011288805268109</v>
+        <v>1.8907625977963791</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31">
-        <v>18007</v>
+        <v>70651620</v>
       </c>
       <c r="C31">
-        <v>186524</v>
+        <v>197339867</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>10.358416171488866</v>
+        <v>2.793140015756185</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B32">
-        <v>82194</v>
+        <v>9567</v>
       </c>
       <c r="C32">
-        <v>268113</v>
+        <v>251835</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>3.2619534272574642</v>
+        <v>26.32329883976168</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>304</v>
+        <v>39501</v>
       </c>
       <c r="C33">
-        <v>427338</v>
+        <v>104175</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>1405.7171052631579</v>
+        <v>2.6372750056960585</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B34">
-        <v>574062</v>
+        <v>18007</v>
       </c>
       <c r="C34">
-        <v>8447449</v>
+        <v>187439</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="0"/>
-        <v>14.715220655608627</v>
+        <v>10.409229743988449</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>887</v>
+        <v>82194</v>
       </c>
       <c r="C35">
-        <v>478446</v>
+        <v>297764</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>539.39797068771134</v>
+        <v>3.6226975205002798</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36">
-        <v>1757</v>
+        <v>304</v>
       </c>
       <c r="C36">
-        <v>399847</v>
+        <v>427340</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
-        <v>227.57370517928288</v>
+        <v>1405.7236842105262</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>190248</v>
+        <v>574062</v>
       </c>
       <c r="C37">
-        <v>413079</v>
+        <v>8448281</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="0"/>
-        <v>2.1712659265800429</v>
+        <v>14.716669976413698</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B38">
-        <v>2064844</v>
+        <v>887</v>
       </c>
       <c r="C38">
-        <v>13059325</v>
+        <v>478450</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
-        <v>6.3246061203655097</v>
+        <v>539.40248027057498</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B39">
-        <v>50722</v>
+        <v>1757</v>
       </c>
       <c r="C39">
-        <v>813982</v>
+        <v>399856</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="0"/>
-        <v>16.0479082055124</v>
+        <v>227.57882754695504</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B40">
-        <v>45923418</v>
+        <v>190248</v>
       </c>
       <c r="C40">
-        <v>65321959</v>
+        <v>429391</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
-        <v>1.4224106533185312</v>
+        <v>2.2570066439594636</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B41">
-        <v>72258</v>
+        <v>2064844</v>
       </c>
       <c r="C41">
-        <v>4608396</v>
+        <v>13434107</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="0"/>
-        <v>63.776965872290958</v>
+        <v>6.5061123261612019</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B42">
-        <v>401032</v>
+        <v>50722</v>
       </c>
       <c r="C42">
-        <v>713346</v>
+        <v>820632</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="0"/>
-        <v>1.7787757585429591</v>
+        <v>16.179015023066913</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43">
-        <v>355</v>
+        <v>45923418</v>
       </c>
       <c r="C43">
-        <v>2155895</v>
+        <v>82242494</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="0"/>
-        <v>6072.9436619718308</v>
+        <v>1.7908617777535636</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B44">
-        <v>6074672</v>
+        <v>72258</v>
       </c>
       <c r="C44">
-        <v>7724513</v>
+        <v>4612337</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="0"/>
-        <v>1.2715934292419409</v>
+        <v>63.831506545987985</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B45">
-        <v>132891</v>
+        <v>401032</v>
       </c>
       <c r="C45">
-        <v>169268</v>
+        <v>840020</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="0"/>
-        <v>1.2737356179124244</v>
+        <v>2.0946458138003949</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B46">
-        <v>65522</v>
+        <v>355</v>
       </c>
       <c r="C46">
-        <v>85289</v>
+        <v>2155897</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="0"/>
-        <v>1.3016849302524343</v>
+        <v>6072.9492957746479</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B47">
-        <v>15561156</v>
+        <v>1125105</v>
       </c>
       <c r="C47">
-        <v>20152267</v>
+        <v>4417763</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="0"/>
-        <v>1.2950366283841637</v>
+        <v>3.9265339679407698</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B48">
-        <v>143191</v>
+        <v>6074672</v>
       </c>
       <c r="C48">
-        <v>185948</v>
+        <v>13104874</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="0"/>
-        <v>1.2986011690678883</v>
+        <v>2.1572973816528696</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B49">
-        <v>2851</v>
+        <v>132891</v>
       </c>
       <c r="C49">
-        <v>4920</v>
+        <v>287927</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="0"/>
-        <v>1.725710277095756</v>
+        <v>2.1666403292924277</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>5243</v>
+        <v>65522</v>
       </c>
       <c r="C50">
-        <v>8808</v>
+        <v>136106</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="0"/>
-        <v>1.6799542246805264</v>
+        <v>2.0772564940020146</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>334862</v>
+        <v>15561156</v>
       </c>
       <c r="C51">
-        <v>618431</v>
+        <v>38336161</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="0"/>
-        <v>1.8468234675776887</v>
+        <v>2.4635805334770757</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>2659</v>
+        <v>143191</v>
       </c>
       <c r="C52">
-        <v>4620</v>
+        <v>298732</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="0"/>
-        <v>1.7374952989845807</v>
+        <v>2.086248437401792</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>82585</v>
+        <v>2851</v>
       </c>
       <c r="C53">
-        <v>246061</v>
+        <v>7851</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="0"/>
-        <v>2.9794878004480232</v>
+        <v>2.7537706068046299</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>447979</v>
+        <v>5243</v>
       </c>
       <c r="C54">
-        <v>1143908</v>
+        <v>13911</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="0"/>
-        <v>2.5534857660738561</v>
+        <v>2.6532519549876024</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B55">
-        <v>905899</v>
+        <v>334862</v>
       </c>
       <c r="C55">
-        <v>1458346</v>
+        <v>681295</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="0"/>
-        <v>1.6098328842398546</v>
+        <v>2.0345545329120651</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="B56">
-        <v>433226</v>
+        <v>2659</v>
       </c>
       <c r="C56">
-        <v>698524</v>
+        <v>7335</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="0"/>
-        <v>1.6123778351253157</v>
+        <v>2.7585558480631818</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B57">
-        <v>551970</v>
+        <v>82585</v>
       </c>
       <c r="C57">
-        <v>897427</v>
+        <v>317789</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="0"/>
-        <v>1.625861912785115</v>
+        <v>3.8480232487739903</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58">
-        <v>1891045</v>
+        <v>447979</v>
       </c>
       <c r="C58">
-        <v>2715922</v>
+        <v>1612224</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="0"/>
-        <v>1.4362016768506303</v>
+        <v>3.5988829833541303</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B59">
-        <v>1001050</v>
+        <v>905899</v>
       </c>
       <c r="C59">
-        <v>1927640</v>
+        <v>1733591</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" si="0"/>
-        <v>1.9256181009939564</v>
+        <v>1.9136691838714912</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B60">
-        <v>755273</v>
+        <v>433226</v>
       </c>
       <c r="C60">
-        <v>1199583</v>
+        <v>802182</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="0"/>
-        <v>1.5882773513683133</v>
+        <v>1.8516478697031111</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B61">
-        <v>470934</v>
+        <v>551970</v>
       </c>
       <c r="C61">
-        <v>1437689</v>
+        <v>1006230</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="0"/>
-        <v>3.0528460463674314</v>
+        <v>1.8229795097559649</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B62">
-        <v>1178453</v>
+        <v>1891045</v>
       </c>
       <c r="C62">
-        <v>1885260</v>
+        <v>3386906</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" si="0"/>
-        <v>1.5997752986330385</v>
+        <v>1.7910234817257125</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="B63">
-        <v>3131</v>
+        <v>1210098</v>
       </c>
       <c r="C63">
-        <v>5420</v>
+        <v>2232325</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="0"/>
-        <v>1.7310763334397956</v>
+        <v>1.8447472849306419</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B64">
-        <v>2515</v>
+        <v>1001050</v>
       </c>
       <c r="C64">
-        <v>4312</v>
+        <v>2393131</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="0"/>
-        <v>1.7145129224652087</v>
+        <v>2.3906208481094851</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B65">
-        <v>1903735</v>
+        <v>755273</v>
       </c>
       <c r="C65">
-        <v>3499442</v>
+        <v>1440860</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" si="0"/>
-        <v>1.8381980685336983</v>
+        <v>1.9077340246506893</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B66">
-        <v>1107098</v>
+        <v>470934</v>
       </c>
       <c r="C66">
-        <v>1566845</v>
+        <v>1914084</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" si="0"/>
-        <v>1.4152721800599406</v>
+        <v>4.0644421511294579</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>1801878</v>
+        <v>1178453</v>
       </c>
       <c r="C67">
-        <v>2769083</v>
+        <v>2188788</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" si="0"/>
-        <v>1.5367760747397992</v>
+        <v>1.8573400890828908</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B68">
-        <v>2437497</v>
+        <v>3131</v>
       </c>
       <c r="C68">
-        <v>4814788</v>
+        <v>8575</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D86" si="1">C68/B68</f>
-        <v>1.9753000721641913</v>
+        <f t="shared" ref="D68:D91" si="1">C68/B68</f>
+        <v>2.7387416160970934</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B69">
-        <v>467550</v>
+        <v>2515</v>
       </c>
       <c r="C69">
-        <v>697265</v>
+        <v>6607</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" si="1"/>
-        <v>1.4913164367447331</v>
+        <v>2.6270377733598411</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B70">
-        <v>3109</v>
+        <v>1903735</v>
       </c>
       <c r="C70">
-        <v>5486</v>
+        <v>4312279</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" si="1"/>
-        <v>1.7645545191379866</v>
+        <v>2.2651676835273817</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B71">
-        <v>899701</v>
+        <v>1107098</v>
       </c>
       <c r="C71">
-        <v>1385124</v>
+        <v>1867578</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" si="1"/>
-        <v>1.5395381354472208</v>
+        <v>1.6869129923457544</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>312728</v>
+        <v>1801878</v>
       </c>
       <c r="C72">
-        <v>639730</v>
+        <v>3324336</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" si="1"/>
-        <v>2.0456434985034919</v>
+        <v>1.8449284579755123</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B73">
-        <v>18007</v>
+        <v>2437497</v>
       </c>
       <c r="C73">
-        <v>186524</v>
+        <v>5273728</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" si="1"/>
-        <v>10.358416171488866</v>
+        <v>2.1635833808205711</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B74">
-        <v>3175308</v>
+        <v>467550</v>
       </c>
       <c r="C74">
-        <v>5681712</v>
+        <v>940813</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" si="1"/>
-        <v>1.789342010286876</v>
+        <v>2.0122190140091969</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B75">
-        <v>142059</v>
+        <v>3109</v>
       </c>
       <c r="C75">
-        <v>737049</v>
+        <v>8227</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" si="1"/>
-        <v>5.1883302008320484</v>
+        <v>2.6461884850434223</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B76">
-        <v>453769</v>
+        <v>899701</v>
       </c>
       <c r="C76">
-        <v>1358725</v>
+        <v>1701121</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" si="1"/>
-        <v>2.9943098801372505</v>
+        <v>1.8907625977963791</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B77">
-        <v>498246</v>
+        <v>312728</v>
       </c>
       <c r="C77">
-        <v>1111640</v>
+        <v>642675</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" si="1"/>
-        <v>2.2311067223821164</v>
+        <v>2.055060627765982</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>304</v>
+        <v>18007</v>
       </c>
       <c r="C78">
-        <v>427338</v>
+        <v>187439</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" si="1"/>
-        <v>1405.7171052631579</v>
+        <v>10.409229743988449</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B79">
-        <v>797866</v>
+        <v>3175308</v>
       </c>
       <c r="C79">
-        <v>6839435</v>
+        <v>7838972</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" si="1"/>
-        <v>8.572159986764694</v>
+        <v>2.4687280729932342</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>3835114</v>
+        <v>142059</v>
       </c>
       <c r="C80">
-        <v>15902649</v>
+        <v>747752</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" si="1"/>
-        <v>4.1465909487957857</v>
+        <v>5.2636721362250896</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B81">
-        <v>50722</v>
+        <v>453769</v>
       </c>
       <c r="C81">
-        <v>813982</v>
+        <v>1563727</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" si="1"/>
-        <v>16.0479082055124</v>
+        <v>3.4460860041122245</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B82">
-        <v>647011</v>
+        <v>498246</v>
       </c>
       <c r="C82">
-        <v>9796541</v>
+        <v>1154507</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" si="1"/>
-        <v>15.141227892570605</v>
+        <v>2.3171425360163451</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>5189</v>
+        <v>304</v>
       </c>
       <c r="C83">
-        <v>1233896</v>
+        <v>427340</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" si="1"/>
-        <v>237.79071111967625</v>
+        <v>1405.7236842105262</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>740235</v>
+        <v>797866</v>
       </c>
       <c r="C84">
-        <v>2542383</v>
+        <v>6840229</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" si="1"/>
-        <v>3.4345619972035908</v>
+        <v>8.5731551413395231</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B85">
-        <v>402460</v>
+        <v>3835114</v>
       </c>
       <c r="C85">
-        <v>717643</v>
+        <v>17412807</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" si="1"/>
-        <v>1.7831411817323461</v>
+        <v>4.5403622943151101</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B86">
-        <v>3975194</v>
+        <v>50722</v>
       </c>
       <c r="C86">
-        <v>16079495</v>
+        <v>820632</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" si="1"/>
-        <v>4.0449585605130212</v>
+        <v>16.179015023066913</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>647011</v>
+      </c>
+      <c r="C87">
+        <v>9905335</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="1"/>
+        <v>15.309376502099655</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>5189</v>
+      </c>
+      <c r="C88">
+        <v>1234643</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="1"/>
+        <v>237.93466949315859</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>740235</v>
+      </c>
+      <c r="C89">
+        <v>2672407</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6102143238295947</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90">
+        <v>402460</v>
+      </c>
+      <c r="C90">
+        <v>844395</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0980842816677434</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91">
+        <v>3975194</v>
+      </c>
+      <c r="C91">
+        <v>16763034</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2169096652892915</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/mc2022/total_X_definition.xlsx
+++ b/benchmarks/mc2022/total_X_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/model-counting/benchmarks/mc2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163F31FC-3BDD-7E47-B39E-C731C5C94E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762CDE76-ADCE-C344-840C-06A87D1E6C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11920" yWindow="500" windowWidth="35140" windowHeight="26660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57840" yWindow="7380" windowWidth="35140" windowHeight="26660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v01-no-lemmas" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="128">
   <si>
     <t>Instance</t>
   </si>
@@ -274,21 +274,12 @@
     <t>mc2022_track2_053</t>
   </si>
   <si>
-    <t>mc2022_track2_085</t>
-  </si>
-  <si>
     <t>mc2022_track2_089</t>
   </si>
   <si>
-    <t>mc2022_track2_097</t>
-  </si>
-  <si>
     <t>mc2022_track2_101</t>
   </si>
   <si>
-    <t>mc2022_track2_107</t>
-  </si>
-  <si>
     <t>mc2022_track2_125</t>
   </si>
   <si>
@@ -338,12 +329,106 @@
   </si>
   <si>
     <t>mc2022_track2_035</t>
+  </si>
+  <si>
+    <t>mc2022_track1_049</t>
+  </si>
+  <si>
+    <t>mc2022_track1_069</t>
+  </si>
+  <si>
+    <t>mc2022_track1_071</t>
+  </si>
+  <si>
+    <t>mc2022_track1_083</t>
+  </si>
+  <si>
+    <t>mc2022_track1_089</t>
+  </si>
+  <si>
+    <t>mc2022_track1_099</t>
+  </si>
+  <si>
+    <t>mc2022_track1_107</t>
+  </si>
+  <si>
+    <t>mc2022_track1_117</t>
+  </si>
+  <si>
+    <t>mc2022_track1_121</t>
+  </si>
+  <si>
+    <t>mc2022_track1_125</t>
+  </si>
+  <si>
+    <t>mc2022_track1_127</t>
+  </si>
+  <si>
+    <t>mc2022_track1_133</t>
+  </si>
+  <si>
+    <t>mc2022_track1_135</t>
+  </si>
+  <si>
+    <t>mc2022_track1_145</t>
+  </si>
+  <si>
+    <t>mc2022_track1_157</t>
+  </si>
+  <si>
+    <t>mc2022_track1_167</t>
+  </si>
+  <si>
+    <t>mc2022_track2_001</t>
+  </si>
+  <si>
+    <t>mc2022_track2_055</t>
+  </si>
+  <si>
+    <t>mc2022_track2_061</t>
+  </si>
+  <si>
+    <t>mc2022_track2_079</t>
+  </si>
+  <si>
+    <t>mc2022_track2_091</t>
+  </si>
+  <si>
+    <t>mc2022_track2_111</t>
+  </si>
+  <si>
+    <t>mc2022_track2_139</t>
+  </si>
+  <si>
+    <t>mc2022_track2_179</t>
+  </si>
+  <si>
+    <t>mc2022_track2_181</t>
+  </si>
+  <si>
+    <t>mc2022_track2_199</t>
+  </si>
+  <si>
+    <t>Defining</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -777,7 +862,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -820,13 +905,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -854,6 +941,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -2528,70 +2616,70 @@
                   <c:v>3191</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>5985623</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>467550</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>1318024</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>4713</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>1682059</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>1406192</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>899701</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
+                  <c:v>4936014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8038928</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>70651620</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>9567</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>39501</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>18007</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
+                  <c:v>125319627</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>82194</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
+                  <c:v>269645146</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>304</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>574062</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>887</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>1757</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
+                  <c:v>78873354</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>190248</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2064844</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>50722</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45923418</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>72258</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>401032</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2606,19 +2694,19 @@
                   <c:v>161794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2392</c:v>
+                  <c:v>2397</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262327</c:v>
+                  <c:v>262373</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>549</c:v>
+                  <c:v>554</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14373</c:v>
@@ -2627,19 +2715,19 @@
                   <c:v>1213826</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81776</c:v>
+                  <c:v>81780</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33206</c:v>
+                  <c:v>33207</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1117366</c:v>
+                  <c:v>1117440</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3809317</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2211854</c:v>
+                  <c:v>2211944</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2393131</c:v>
@@ -2651,7 +2739,7 @@
                   <c:v>13207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>721933</c:v>
+                  <c:v>721935</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>13101</c:v>
@@ -2663,76 +2751,76 @@
                   <c:v>46079</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1593572</c:v>
+                  <c:v>1593947</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26361</c:v>
+                  <c:v>26378</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>940813</c:v>
+                  <c:v>28392373</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2813556</c:v>
+                  <c:v>940819</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23827</c:v>
+                  <c:v>2813565</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3154692</c:v>
+                  <c:v>23892</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>3160386</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>4043887</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>1701121</c:v>
-                </c:pt>
                 <c:pt idx="28">
+                  <c:v>1704811</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11840667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68469623</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>197339867</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>251835</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>104175</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>187439</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>297764</c:v>
+                  <c:v>251890</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>427340</c:v>
+                  <c:v>104182</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>187551</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>374762287</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>297768</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>770382773</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>427342</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>8448281</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>478450</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>399856</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>429391</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13434107</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>820632</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>82242494</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4612337</c:v>
-                </c:pt>
                 <c:pt idx="42">
-                  <c:v>840020</c:v>
+                  <c:v>503117290</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2155897</c:v>
+                  <c:v>429409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6532,20 +6620,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC4FA71-AAA7-E84F-A484-BC84FC126B46}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C91"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6559,12 +6648,12 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>18271</v>
@@ -6591,11 +6680,11 @@
         <v>1295</v>
       </c>
       <c r="C4">
-        <v>2392</v>
+        <v>2397</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D67" si="0">C4/B4</f>
-        <v>1.8471042471042471</v>
+        <v>1.850965250965251</v>
       </c>
       <c r="E4" s="1">
         <v>120000000</v>
@@ -6633,11 +6722,11 @@
         <v>127284</v>
       </c>
       <c r="C6">
-        <v>262327</v>
+        <v>262373</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>2.0609581722761696</v>
+        <v>2.0613195688381887</v>
       </c>
       <c r="E6" s="1">
         <v>1200000</v>
@@ -6675,11 +6764,11 @@
         <v>359</v>
       </c>
       <c r="C8">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.5292479108635098</v>
+        <v>1.5431754874651811</v>
       </c>
       <c r="E8" s="1">
         <v>1000000</v>
@@ -6726,11 +6815,11 @@
         <v>44178</v>
       </c>
       <c r="C11">
-        <v>81776</v>
+        <v>81780</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>1.8510570872379917</v>
+        <v>1.8511476300421024</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -6741,11 +6830,11 @@
         <v>493</v>
       </c>
       <c r="C12">
-        <v>33206</v>
+        <v>33207</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>67.354969574036517</v>
+        <v>67.356997971602439</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -6756,11 +6845,11 @@
         <v>605988</v>
       </c>
       <c r="C13">
-        <v>1117366</v>
+        <v>1117440</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>1.8438747962005848</v>
+        <v>1.8439969108299175</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -6778,7 +6867,7 @@
         <v>3.3374982148630283</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -6789,18 +6878,18 @@
         <v>1197649</v>
       </c>
       <c r="C15">
-        <v>2211854</v>
+        <v>2211944</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>1.8468299142737146</v>
+        <v>1.8469050614996547</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2">
         <f>MIN(D:D)</f>
-        <v>1.5292479108635098</v>
+        <v>1.5431754874651811</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -6818,11 +6907,11 @@
         <v>2.3906208481094851</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2">
         <f>MAX(D:D)</f>
-        <v>6072.9492957746479</v>
+        <v>6072.9577464788736</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -6840,11 +6929,11 @@
         <v>2.6640651510010178</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F17" s="2">
         <f>AVERAGE(D:D)</f>
-        <v>117.65910878306588</v>
+        <v>112.86774897670921</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -6862,11 +6951,11 @@
         <v>2.6461630935684233</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F18" s="2">
         <f>HARMEAN(D:D)</f>
-        <v>2.9314662896794688</v>
+        <v>3.1334336719081586</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -6877,11 +6966,11 @@
         <v>355617</v>
       </c>
       <c r="C19">
-        <v>721933</v>
+        <v>721935</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>2.0300857383083484</v>
+        <v>2.0300913623364463</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -6913,6 +7002,9 @@
         <f t="shared" si="0"/>
         <v>2.1635833808205711</v>
       </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -6928,6 +7020,13 @@
         <f t="shared" si="0"/>
         <v>133.56231884057971</v>
       </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22">
+        <f>MIN(B:B)</f>
+        <v>304</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -6937,11 +7036,18 @@
         <v>701346</v>
       </c>
       <c r="C23">
-        <v>1593572</v>
+        <v>1593947</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>2.2721623848998926</v>
+        <v>2.2726970710605037</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23">
+        <f>MAX(B:B)</f>
+        <v>325251378</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6952,1016 +7058,1336 @@
         <v>3191</v>
       </c>
       <c r="C24">
-        <v>26361</v>
+        <v>26378</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>8.2610466938263869</v>
+        <v>8.2663741773738639</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <f>AVERAGE(B:B)</f>
+        <v>14554539.546296297</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B25">
-        <v>467550</v>
+        <v>5985623</v>
       </c>
       <c r="C25">
-        <v>940813</v>
+        <v>28392373</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>2.0122190140091969</v>
+        <v>4.7434282112321471</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>1318024</v>
+        <v>467550</v>
       </c>
       <c r="C26">
-        <v>2813556</v>
+        <v>940819</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>2.1346773655107949</v>
+        <v>2.0122318468612983</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B27">
-        <v>4713</v>
+        <v>1318024</v>
       </c>
       <c r="C27">
-        <v>23827</v>
+        <v>2813565</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>5.0555909187354127</v>
+        <v>2.1346841939145267</v>
+      </c>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="3">
+        <f>MIN(C:C)</f>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>1682059</v>
+        <v>4713</v>
       </c>
       <c r="C28">
-        <v>3154692</v>
+        <v>23892</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>1.8754942603083482</v>
+        <v>5.0693825588796946</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="3">
+        <f>MAX(C:C)</f>
+        <v>770382773</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>1406192</v>
+        <v>1682059</v>
       </c>
       <c r="C29">
-        <v>4043887</v>
+        <v>3160386</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>2.8757715873792482</v>
+        <v>1.8788793972149609</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="3">
+        <f>AVERAGE(C:C)</f>
+        <v>45001945.351851851</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>899701</v>
+        <v>1406192</v>
       </c>
       <c r="C30">
-        <v>1701121</v>
+        <v>4043887</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>1.8907625977963791</v>
+        <v>2.8757715873792482</v>
+      </c>
+      <c r="F30" s="3">
+        <f>MEDIAN(C:C)</f>
+        <v>1719244.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>70651620</v>
+        <v>899701</v>
       </c>
       <c r="C31">
-        <v>197339867</v>
+        <v>1704811</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>2.793140015756185</v>
+        <v>1.894863960360164</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B32">
-        <v>9567</v>
+        <v>4936014</v>
       </c>
       <c r="C32">
-        <v>251835</v>
+        <v>11840667</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>26.32329883976168</v>
+        <v>2.3988317294075747</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B33">
-        <v>39501</v>
+        <v>8038928</v>
       </c>
       <c r="C33">
-        <v>104175</v>
+        <v>68469623</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>2.6372750056960585</v>
+        <v>8.5172578980680012</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34">
-        <v>18007</v>
+        <v>70651620</v>
       </c>
       <c r="C34">
-        <v>187439</v>
+        <v>197339867</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="0"/>
-        <v>10.409229743988449</v>
+        <v>2.793140015756185</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B35">
-        <v>82194</v>
+        <v>9567</v>
       </c>
       <c r="C35">
-        <v>297764</v>
+        <v>251890</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>3.6226975205002798</v>
+        <v>26.32904776837044</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>304</v>
+        <v>39501</v>
       </c>
       <c r="C36">
-        <v>427340</v>
+        <v>104182</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
-        <v>1405.7236842105262</v>
+        <v>2.6374522163995846</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B37">
-        <v>574062</v>
+        <v>18007</v>
       </c>
       <c r="C37">
-        <v>8448281</v>
+        <v>187551</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="0"/>
-        <v>14.716669976413698</v>
+        <v>10.415449547398234</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B38">
-        <v>887</v>
+        <v>125319627</v>
       </c>
       <c r="C38">
-        <v>478450</v>
+        <v>374762287</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
-        <v>539.40248027057498</v>
+        <v>2.9904516632498437</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>1757</v>
+        <v>82194</v>
       </c>
       <c r="C39">
-        <v>399856</v>
+        <v>297768</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="0"/>
-        <v>227.57882754695504</v>
+        <v>3.6227461858529821</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B40">
-        <v>190248</v>
+        <v>269645146</v>
       </c>
       <c r="C40">
-        <v>429391</v>
+        <v>770382773</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
-        <v>2.2570066439594636</v>
+        <v>2.8570244427837763</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B41">
-        <v>2064844</v>
+        <v>304</v>
       </c>
       <c r="C41">
-        <v>13434107</v>
+        <v>427342</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="0"/>
-        <v>6.5061123261612019</v>
+        <v>1405.7302631578948</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>50722</v>
+        <v>574062</v>
       </c>
       <c r="C42">
-        <v>820632</v>
+        <v>8448281</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="0"/>
-        <v>16.179015023066913</v>
+        <v>14.716669976413698</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B43">
-        <v>45923418</v>
+        <v>887</v>
       </c>
       <c r="C43">
-        <v>82242494</v>
+        <v>478450</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="0"/>
-        <v>1.7908617777535636</v>
+        <v>539.40248027057498</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B44">
-        <v>72258</v>
+        <v>1757</v>
       </c>
       <c r="C44">
-        <v>4612337</v>
+        <v>399856</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="0"/>
-        <v>63.831506545987985</v>
+        <v>227.57882754695504</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="B45">
-        <v>401032</v>
+        <v>78873354</v>
       </c>
       <c r="C45">
-        <v>840020</v>
+        <v>503117290</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="0"/>
-        <v>2.0946458138003949</v>
+        <v>6.3787992330084</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>355</v>
+        <v>190248</v>
       </c>
       <c r="C46">
-        <v>2155897</v>
+        <v>429409</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="0"/>
-        <v>6072.9492957746479</v>
+        <v>2.2571012573062528</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>1125105</v>
+        <v>2064844</v>
       </c>
       <c r="C47">
-        <v>4417763</v>
+        <v>13434107</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="0"/>
-        <v>3.9265339679407698</v>
+        <v>6.5061123261612019</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="B48">
-        <v>6074672</v>
+        <v>13737124</v>
       </c>
       <c r="C48">
-        <v>13104874</v>
+        <v>141587875</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="0"/>
-        <v>2.1572973816528696</v>
+        <v>10.306951804467952</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B49">
-        <v>132891</v>
+        <v>50722</v>
       </c>
       <c r="C49">
-        <v>287927</v>
+        <v>820648</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="0"/>
-        <v>2.1666403292924277</v>
+        <v>16.179330468041481</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B50">
-        <v>65522</v>
+        <v>45923418</v>
       </c>
       <c r="C50">
-        <v>136106</v>
+        <v>82243431</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="0"/>
-        <v>2.0772564940020146</v>
+        <v>1.7908821812871158</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B51">
-        <v>15561156</v>
+        <v>83111464</v>
       </c>
       <c r="C51">
-        <v>38336161</v>
+        <v>188103550</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="0"/>
-        <v>2.4635805334770757</v>
+        <v>2.2632683982079778</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="B52">
-        <v>143191</v>
+        <v>40776253</v>
       </c>
       <c r="C52">
-        <v>298732</v>
+        <v>104351646</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="0"/>
-        <v>2.086248437401792</v>
+        <v>2.5591278825938226</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="B53">
-        <v>2851</v>
+        <v>79106742</v>
       </c>
       <c r="C53">
-        <v>7851</v>
+        <v>265990284</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="0"/>
-        <v>2.7537706068046299</v>
+        <v>3.3624224342344928</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B54">
-        <v>5243</v>
+        <v>3133905</v>
       </c>
       <c r="C54">
-        <v>13911</v>
+        <v>23973053</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="0"/>
-        <v>2.6532519549876024</v>
+        <v>7.6495787204781251</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B55">
-        <v>334862</v>
+        <v>16147</v>
       </c>
       <c r="C55">
-        <v>681295</v>
+        <v>1697847</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="0"/>
-        <v>2.0345545329120651</v>
+        <v>105.149377593361</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="B56">
-        <v>2659</v>
+        <v>45214</v>
       </c>
       <c r="C56">
-        <v>7335</v>
+        <v>1277037</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="0"/>
-        <v>2.7585558480631818</v>
+        <v>28.244282744282746</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="B57">
-        <v>82585</v>
+        <v>72258</v>
       </c>
       <c r="C57">
-        <v>317789</v>
+        <v>4612352</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="0"/>
-        <v>3.8480232487739903</v>
+        <v>63.831714135459052</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B58">
-        <v>447979</v>
+        <v>905</v>
       </c>
       <c r="C58">
-        <v>1612224</v>
+        <v>2500003</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="0"/>
-        <v>3.5988829833541303</v>
+        <v>2762.4342541436463</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B59">
-        <v>905899</v>
+        <v>401032</v>
       </c>
       <c r="C59">
-        <v>1733591</v>
+        <v>840020</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" si="0"/>
-        <v>1.9136691838714912</v>
+        <v>2.0946458138003949</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B60">
-        <v>433226</v>
+        <v>355</v>
       </c>
       <c r="C60">
-        <v>802182</v>
+        <v>2155900</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="0"/>
-        <v>1.8516478697031111</v>
+        <v>6072.9577464788736</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B61">
-        <v>551970</v>
+        <v>63050</v>
       </c>
       <c r="C61">
-        <v>1006230</v>
+        <v>4771522</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="0"/>
-        <v>1.8229795097559649</v>
+        <v>75.678382236320374</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="B62">
-        <v>1891045</v>
+        <v>3195277</v>
       </c>
       <c r="C62">
-        <v>3386906</v>
+        <v>6098685</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" si="0"/>
-        <v>1.7910234817257125</v>
+        <v>1.9086561196415834</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>1210098</v>
+        <v>1125105</v>
       </c>
       <c r="C63">
-        <v>2232325</v>
+        <v>4417869</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="0"/>
-        <v>1.8447472849306419</v>
+        <v>3.9266281813697388</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B64">
-        <v>1001050</v>
+        <v>325251378</v>
       </c>
       <c r="C64">
-        <v>2393131</v>
+        <v>736764776</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="0"/>
-        <v>2.3906208481094851</v>
+        <v>2.2652164628184912</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B65">
-        <v>755273</v>
+        <v>6074672</v>
       </c>
       <c r="C65">
-        <v>1440860</v>
+        <v>13104909</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" si="0"/>
-        <v>1.9077340246506893</v>
+        <v>2.1573031432808225</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B66">
-        <v>470934</v>
+        <v>132891</v>
       </c>
       <c r="C66">
-        <v>1914084</v>
+        <v>287958</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" si="0"/>
-        <v>4.0644421511294579</v>
+        <v>2.1668736031785447</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B67">
-        <v>1178453</v>
+        <v>65522</v>
       </c>
       <c r="C67">
-        <v>2188788</v>
+        <v>136116</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" si="0"/>
-        <v>1.8573400890828908</v>
+        <v>2.0774091144958944</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B68">
-        <v>3131</v>
+        <v>15561156</v>
       </c>
       <c r="C68">
-        <v>8575</v>
+        <v>38336288</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D91" si="1">C68/B68</f>
-        <v>2.7387416160970934</v>
+        <f t="shared" ref="D68:D110" si="1">C68/B68</f>
+        <v>2.4635886948244718</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B69">
-        <v>2515</v>
+        <v>143191</v>
       </c>
       <c r="C69">
-        <v>6607</v>
+        <v>298755</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" si="1"/>
-        <v>2.6270377733598411</v>
+        <v>2.0864090620220543</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B70">
-        <v>1903735</v>
+        <v>2851</v>
       </c>
       <c r="C70">
-        <v>4312279</v>
+        <v>7851</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" si="1"/>
-        <v>2.2651676835273817</v>
+        <v>2.7537706068046299</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B71">
-        <v>1107098</v>
+        <v>5243</v>
       </c>
       <c r="C71">
-        <v>1867578</v>
+        <v>13911</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" si="1"/>
-        <v>1.6869129923457544</v>
+        <v>2.6532519549876024</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B72">
-        <v>1801878</v>
+        <v>334862</v>
       </c>
       <c r="C72">
-        <v>3324336</v>
+        <v>681444</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" si="1"/>
-        <v>1.8449284579755123</v>
+        <v>2.0349994923281831</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B73">
-        <v>2437497</v>
+        <v>2659</v>
       </c>
       <c r="C73">
-        <v>5273728</v>
+        <v>7335</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" si="1"/>
-        <v>2.1635833808205711</v>
+        <v>2.7585558480631818</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B74">
-        <v>467550</v>
+        <v>82585</v>
       </c>
       <c r="C74">
-        <v>940813</v>
+        <v>317789</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" si="1"/>
-        <v>2.0122190140091969</v>
+        <v>3.8480232487739903</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B75">
-        <v>3109</v>
+        <v>447979</v>
       </c>
       <c r="C75">
-        <v>8227</v>
+        <v>1612224</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" si="1"/>
-        <v>2.6461884850434223</v>
+        <v>3.5988829833541303</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B76">
-        <v>899701</v>
+        <v>905899</v>
       </c>
       <c r="C76">
-        <v>1701121</v>
+        <v>1733678</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" si="1"/>
-        <v>1.8907625977963791</v>
+        <v>1.9137652210676908</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B77">
-        <v>312728</v>
+        <v>433226</v>
       </c>
       <c r="C77">
-        <v>642675</v>
+        <v>802268</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" si="1"/>
-        <v>2.055060627765982</v>
+        <v>1.851846380411148</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>18007</v>
+        <v>551970</v>
       </c>
       <c r="C78">
-        <v>187439</v>
+        <v>1006319</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" si="1"/>
-        <v>10.409229743988449</v>
+        <v>1.8231407504031016</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B79">
-        <v>3175308</v>
+        <v>1891045</v>
       </c>
       <c r="C79">
-        <v>7838972</v>
+        <v>3387533</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" si="1"/>
-        <v>2.4687280729932342</v>
+        <v>1.7913550444331043</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B80">
-        <v>142059</v>
+        <v>1210098</v>
       </c>
       <c r="C80">
-        <v>747752</v>
+        <v>2232426</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" si="1"/>
-        <v>5.2636721362250896</v>
+        <v>1.8448307492451024</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B81">
-        <v>453769</v>
+        <v>755273</v>
       </c>
       <c r="C81">
-        <v>1563727</v>
+        <v>1440924</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" si="1"/>
-        <v>3.4460860041122245</v>
+        <v>1.9078187622224017</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B82">
-        <v>498246</v>
+        <v>470934</v>
       </c>
       <c r="C82">
-        <v>1154507</v>
+        <v>1914084</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" si="1"/>
-        <v>2.3171425360163451</v>
+        <v>4.0644421511294579</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B83">
-        <v>304</v>
+        <v>1178453</v>
       </c>
       <c r="C83">
-        <v>427340</v>
+        <v>2188886</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" si="1"/>
-        <v>1405.7236842105262</v>
+        <v>1.8574232489543494</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B84">
-        <v>797866</v>
+        <v>3131</v>
       </c>
       <c r="C84">
-        <v>6840229</v>
+        <v>8575</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" si="1"/>
-        <v>8.5731551413395231</v>
+        <v>2.7387416160970934</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B85">
-        <v>3835114</v>
+        <v>2515</v>
       </c>
       <c r="C85">
-        <v>17412807</v>
+        <v>6607</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" si="1"/>
-        <v>4.5403622943151101</v>
+        <v>2.6270377733598411</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B86">
-        <v>50722</v>
+        <v>1903735</v>
       </c>
       <c r="C86">
-        <v>820632</v>
+        <v>4312279</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" si="1"/>
-        <v>16.179015023066913</v>
+        <v>2.2651676835273817</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B87">
-        <v>647011</v>
+        <v>1107098</v>
       </c>
       <c r="C87">
-        <v>9905335</v>
+        <v>1868005</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" si="1"/>
-        <v>15.309376502099655</v>
+        <v>1.6872986853918985</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B88">
-        <v>5189</v>
+        <v>1801878</v>
       </c>
       <c r="C88">
-        <v>1234643</v>
+        <v>3324418</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" si="1"/>
-        <v>237.93466949315859</v>
+        <v>1.8449739660509756</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B89">
-        <v>740235</v>
+        <v>47556240</v>
       </c>
       <c r="C89">
-        <v>2672407</v>
+        <v>206213289</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" si="1"/>
-        <v>3.6102143238295947</v>
+        <v>4.3361983411640619</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="B90">
-        <v>402460</v>
+        <v>24087642</v>
       </c>
       <c r="C90">
-        <v>844395</v>
+        <v>83491057</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" si="1"/>
-        <v>2.0980842816677434</v>
+        <v>3.4661365774200728</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="B91">
-        <v>3975194</v>
+        <v>3109</v>
       </c>
       <c r="C91">
-        <v>16763034</v>
+        <v>8227</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" si="1"/>
-        <v>4.2169096652892915</v>
+        <v>2.6461884850434223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92">
+        <v>16038150</v>
+      </c>
+      <c r="C92">
+        <v>101261480</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="1"/>
+        <v>6.3137880615906452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93">
+        <v>312728</v>
+      </c>
+      <c r="C93">
+        <v>642675</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="1"/>
+        <v>2.055060627765982</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94">
+        <v>3175308</v>
+      </c>
+      <c r="C94">
+        <v>7847036</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4712676691520947</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95">
+        <v>142059</v>
+      </c>
+      <c r="C95">
+        <v>747752</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="1"/>
+        <v>5.2636721362250896</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96">
+        <v>20382514</v>
+      </c>
+      <c r="C96">
+        <v>69650789</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4171834249690689</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97">
+        <v>453769</v>
+      </c>
+      <c r="C97">
+        <v>1563728</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="1"/>
+        <v>3.446088207876695</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98">
+        <v>498246</v>
+      </c>
+      <c r="C98">
+        <v>1154507</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3171425360163451</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99">
+        <v>797866</v>
+      </c>
+      <c r="C99">
+        <v>6840229</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="1"/>
+        <v>8.5731551413395231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100">
+        <v>3835114</v>
+      </c>
+      <c r="C100">
+        <v>17412807</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5403622943151101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101">
+        <v>5035130</v>
+      </c>
+      <c r="C101">
+        <v>10668725</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1188579043639391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102">
+        <v>647011</v>
+      </c>
+      <c r="C102">
+        <v>9905453</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="1"/>
+        <v>15.309558879215345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>82</v>
+      </c>
+      <c r="B103">
+        <v>5189</v>
+      </c>
+      <c r="C103">
+        <v>1234644</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="1"/>
+        <v>237.93486220851801</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104">
+        <v>740235</v>
+      </c>
+      <c r="C104">
+        <v>2672407</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6102143238295947</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105">
+        <v>219979530</v>
+      </c>
+      <c r="C105">
+        <v>417455256</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8977004633112908</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106">
+        <v>402460</v>
+      </c>
+      <c r="C106">
+        <v>844395</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0980842816677434</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107">
+        <v>2295530</v>
+      </c>
+      <c r="C107">
+        <v>81147729</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" si="1"/>
+        <v>35.350323890343404</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108">
+        <v>1772352</v>
+      </c>
+      <c r="C108">
+        <v>119113610</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" si="1"/>
+        <v>67.206519923807463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109">
+        <v>3975194</v>
+      </c>
+      <c r="C109">
+        <v>16763326</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2169831208237891</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110">
+        <v>8493275</v>
+      </c>
+      <c r="C110">
+        <v>41873955</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="1"/>
+        <v>4.9302483435423907</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/mc2022/total_X_definition.xlsx
+++ b/benchmarks/mc2022/total_X_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/model-counting/benchmarks/mc2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762CDE76-ADCE-C344-840C-06A87D1E6C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66BC1D8-9ED5-E248-933E-692D461D2388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57840" yWindow="7380" windowWidth="35140" windowHeight="26660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60480" yWindow="500" windowWidth="15660" windowHeight="26660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v01-no-lemmas" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="129">
   <si>
     <t>Instance</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -911,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6623,7 +6626,7 @@
   <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7086,6 +7089,13 @@
         <f t="shared" si="0"/>
         <v>4.7434282112321471</v>
       </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25">
+        <f>MEDIAN(B:B)</f>
+        <v>525108</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -7101,9 +7111,6 @@
         <f t="shared" si="0"/>
         <v>2.0122318468612983</v>
       </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -7119,13 +7126,6 @@
         <f t="shared" si="0"/>
         <v>2.1346841939145267</v>
       </c>
-      <c r="E27" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="3">
-        <f>MIN(C:C)</f>
-        <v>554</v>
-      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -7141,13 +7141,6 @@
         <f t="shared" si="0"/>
         <v>5.0693825588796946</v>
       </c>
-      <c r="E28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="3">
-        <f>MAX(C:C)</f>
-        <v>770382773</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -7163,13 +7156,6 @@
         <f t="shared" si="0"/>
         <v>1.8788793972149609</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" s="3">
-        <f>AVERAGE(C:C)</f>
-        <v>45001945.351851851</v>
-      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -7185,10 +7171,6 @@
         <f t="shared" si="0"/>
         <v>2.8757715873792482</v>
       </c>
-      <c r="F30" s="3">
-        <f>MEDIAN(C:C)</f>
-        <v>1719244.5</v>
-      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -7204,6 +7186,9 @@
         <f t="shared" si="0"/>
         <v>1.894863960360164</v>
       </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -7219,8 +7204,15 @@
         <f t="shared" si="0"/>
         <v>2.3988317294075747</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="3">
+        <f>MIN(C:C)</f>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -7234,8 +7226,15 @@
         <f t="shared" si="0"/>
         <v>8.5172578980680012</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="3">
+        <f>MAX(C:C)</f>
+        <v>770382773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -7249,8 +7248,15 @@
         <f t="shared" si="0"/>
         <v>2.793140015756185</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="3">
+        <f>AVERAGE(C:C)</f>
+        <v>45001945.351851851</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -7264,8 +7270,15 @@
         <f t="shared" si="0"/>
         <v>26.32904776837044</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="3">
+        <f>MEDIAN(C:C)</f>
+        <v>1719244.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -7280,7 +7293,7 @@
         <v>2.6374522163995846</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -7295,7 +7308,7 @@
         <v>10.415449547398234</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -7310,7 +7323,7 @@
         <v>2.9904516632498437</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -7325,7 +7338,7 @@
         <v>3.6227461858529821</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -7340,7 +7353,7 @@
         <v>2.8570244427837763</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -7355,7 +7368,7 @@
         <v>1405.7302631578948</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -7370,7 +7383,7 @@
         <v>14.716669976413698</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -7385,7 +7398,7 @@
         <v>539.40248027057498</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -7400,7 +7413,7 @@
         <v>227.57882754695504</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -7415,7 +7428,7 @@
         <v>6.3787992330084</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -7430,7 +7443,7 @@
         <v>2.2571012573062528</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -7445,7 +7458,7 @@
         <v>6.5061123261612019</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>104</v>
       </c>
